--- a/Backend_database/Seller.xlsx
+++ b/Backend_database/Seller.xlsx
@@ -3848,7 +3848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3964,7 +3964,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4928,7 +4928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
